--- a/spreadsheet/macrofree/resiliency_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/resiliency_checklist.ja.xlsx
@@ -271,7 +271,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="30">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -285,6 +303,24 @@
       <border>
         <bottom style="thin">
           <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -329,60 +365,6 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -432,20 +414,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -467,13 +435,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -481,23 +442,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -522,6 +485,8 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -928,7 +893,7 @@
   <dimension ref="A2:P302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -955,7 +920,7 @@
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>FastTrack for Azure Checklist</t>
+          <t>Azure Checklist</t>
         </is>
       </c>
       <c r="B2" s="13" t="n"/>
@@ -1109,7 +1074,7 @@
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>インスタンスの自動修復により、異常なインスタンスが迅速に識別されて置き換えられ、スケール セット内の正常なインスタンスのセットが維持されます。</t>
+          <t>自動インスタンス修復により、異常なインスタンスが迅速に特定されて置き換えられ、スケール セット内の正常なインスタンスのセットが維持されます。</t>
         </is>
       </c>
       <c r="E8" s="21" t="inlineStr">
@@ -1159,7 +1124,7 @@
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>Azure 仮想マシン (VM) に対する組織の回復性要件を満たすために、Azure Backup が適切に使用されていることを確認します。</t>
+          <t>Azure 仮想マシン (VM) に対する組織の回復性要件を満たすために、Azure Backup が適切に利用されていることを確認します。</t>
         </is>
       </c>
       <c r="E9" s="21" t="inlineStr">
@@ -1204,12 +1169,12 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>運用 VM に Premium ディスクまたは Ultra ディスクを使用する</t>
+          <t>運用 VM に Premium または Ultra ディスクを使用する</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>すべてのオペレーティング システム ディスクとデータ ディスクに Premium SSD または Ultra ディスクを使用する単一インスタンス VM は、少なくとも 99.9% の仮想マシン接続が保証されます</t>
+          <t>すべてのオペレーティング システム ディスクとデータ ディスクに Premium SSD または Ultra Disk を使用する単一インスタンス VM は、仮想マシンの接続が 99.9% 以上であることが保証されます</t>
         </is>
       </c>
       <c r="E10" s="21" t="inlineStr">
@@ -1254,12 +1219,12 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>マネージド ディスクがすべての VM で使用されていることを確認する</t>
+          <t>すべての VM で Managed Disks が使用されていることを確認する</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>Azure は、リージョン内のマネージド ディスクを自動的にレプリケートして、データの持続性を確保し、単一点障害から保護します。</t>
+          <t>Azure では、リージョン内のマネージド ディスクが自動的にレプリケートされるため、データの持続性が確保され、シングルポイント障害から保護されます。</t>
         </is>
       </c>
       <c r="E11" s="21" t="inlineStr">
@@ -1304,12 +1269,12 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>紛失することが許容されないものに一時ディスクを使用しないでください</t>
+          <t>Tempディスクは、紛失が許容されないものに使用しないでください</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>一時ディスクは、ページ ファイル、スワップ ファイル、SQL Server tempdb などの非永続データを短期間保存するためのものです。一時ディスクに永続データを格納すると、メンテナンス イベントまたは VM の再デプロイ中にデータが失われる可能性があります。</t>
+          <t>一時ディスクは、ページ ファイル、スワップ ファイル、SQL Server tempdb などの非永続データの短期的な保存を目的としています。永続データを一時ディスクに格納すると、メンテナンス イベントや VM の再デプロイ中にデータが失われる可能性があります。</t>
         </is>
       </c>
       <c r="E12" s="21" t="inlineStr">
@@ -1354,12 +1319,12 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>可用性ゾーンがサポートされているリージョンの VM の可用性ゾーンを活用する</t>
+          <t>Availability Zones を VM の VM に活用する (サポートされているリージョン)</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>コンピューティング、ストレージ、ネットワーキング、およびデータ リソースを可用性ゾーン全体に併置し、この配置を他の可用性ゾーンにレプリケートします。</t>
+          <t>コンピューティング、ストレージ、ネットワーク、およびデータ リソースを可用性ゾーン全体に配置して、この配置を他の可用性ゾーンにレプリケートします。</t>
         </is>
       </c>
       <c r="E13" s="21" t="inlineStr">
@@ -1404,7 +1369,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>可用性ゾーンをサポートしていないリージョンの場合は、VM を可用性セットにデプロイします</t>
+          <t>Availability Zones をサポートしていないリージョンの場合、VM を可用性セットにデプロイします</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
@@ -1454,12 +1419,12 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>1 つの VM での運用ワークロードの実行を回避する</t>
+          <t>1 つの VM で運用ワークロードを実行しないようにする</t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>Azure には、さまざまな要件を満たすために VM の冗長性のための複数のオプションが用意されています (可用性ゾーン、仮想マシン スケール セット、可用性セット、Azure Site Recovery )</t>
+          <t>Azure には、さまざまな要件を満たすために VM の冗長性のための複数のオプション (Availability Zones、Virtual Machine Scale Sets、Availability Sets、Azure Site Recovery) が用意されています</t>
         </is>
       </c>
       <c r="E15" s="21" t="inlineStr">
@@ -1504,12 +1469,12 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>RTO 要件が低い Azure およびオンプレミスの VM (Hyper-V/Phyiscal/VMware) の場合は、Azure Site Recovery を使用します。</t>
+          <t>RTO 要件が低い Azure およびオンプレミスの VM (Hyper-V/物理/VMware) の場合は、Azure Site Recovery を使用します</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>Azure Site Recovery では、継続的なレプリケーションとフェールオーバー機能を提供することで、Azure とハイブリッド VM の RTO (目標復旧時間) を低く抑えることができます。</t>
+          <t>Azure Site Recovery を使用すると、継続的なレプリケーションとフェールオーバーの機能により、Azure VM とハイブリッド VM の RTO (目標復旧時間) を低く抑えることができます。</t>
         </is>
       </c>
       <c r="E16" s="21" t="inlineStr">
@@ -1554,12 +1519,12 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>容量の保証を必要とする重要なワークロードに容量予約を使用する</t>
+          <t>キャパシティーの予約 は、保証されたキャパシティーを必要とする重要なワークロードに使用します</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>容量の予約を使用すると、重要なワークロードの容量を効果的に管理し、指定したリージョンでリソースの可用性を確保できます。</t>
+          <t>キャパシティーの予約 を使用すると、重要なワークロードのキャパシティーを効果的に管理し、指定したリージョンでリソースの可用性を確保できます。</t>
         </is>
       </c>
       <c r="E17" s="21" t="inlineStr">
@@ -1604,12 +1569,12 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>ASR を使用したフェールオーバーをテストする前に、DR リージョンのクォータを増やす</t>
+          <t>ASR を使用したフェールオーバーをテストする前に DR リージョンのクォータを増やす</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>ASR を使用したフェールオーバーをテストする前に、DR リージョンで必要なクォータが増加していることを確認することで、フェールオーバーされた VM の復旧プロセス中に潜在的なリソースの制約を回避できます。</t>
+          <t>ASR でフェールオーバーをテストする前に、DR リージョンで必要なクォータが増加していることを確認することで、フェールオーバーされた VM の復旧プロセス中に発生する可能性のあるリソース制約を回避できます。</t>
         </is>
       </c>
       <c r="E18" s="21" t="inlineStr">
@@ -1654,12 +1619,12 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>スケジュールされたイベントを利用して VM のメンテナンスに備える</t>
+          <t>スケジュールされたイベントを利用してVMのメンテナンスに備える</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>スケジュールされたイベントは、仮想マシン (VM) の今後のメンテナンス イベントに関する情報を提供する Azure メタデータ サービスです。スケジュールされたイベントを活用することで、VM メンテナンスのためにアプリケーションをプロアクティブに準備し、中断を最小限に抑え、VM の可用性を向上させることができます。</t>
+          <t>スケジュールされたイベントは、仮想マシン (VM) の今後のメンテナンス イベントに関する情報を提供する Azure メタデータ サービスです。スケジュール イベントを活用することで、VM のメンテナンスに向けてアプリケーションを事前に準備し、中断を最小限に抑え、VM の可用性を向上させることができます。</t>
         </is>
       </c>
       <c r="E19" s="21" t="inlineStr">
@@ -1704,12 +1669,12 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>要件に基づいて、Azure Storage に最適なデータ冗長性オプションを選択する</t>
+          <t>要件に基づいて、Azure Storage に最も適したデータ冗長性オプションを選択する</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>プライマリ リージョンでゾーン冗長ストレージ (ZRS) は、高可用性を必要とするシナリオや、レプリケーションを特定の国またはリージョンに制限する場合に使用します。リージョンの災害から保護するには、プライマリ リージョンの ZRS とセカンダリ リージョンへの geo レプリケーションを組み合わせた geo ゾーン冗長ストレージ (GZRS) を使用します。</t>
+          <t>プライマリ リージョンのゾーン冗長ストレージ (ZRS) は、高可用性が必要なシナリオや、レプリケーションを特定の国またはリージョンに制限する場合に使用します。地域の災害に対する保護のために、プライマリ リージョンの ZRS とセカンダリ リージョンへの geo レプリケーションを組み合わせた geo ゾーン冗長ストレージ (GZRS) を使用します。</t>
         </is>
       </c>
       <c r="E20" s="21" t="inlineStr">
@@ -1759,7 +1724,7 @@
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントに削除ロックを割り当てると、データの可用性を保護し、業務が中断されるリスクを最小限に抑えることができます。</t>
+          <t>ストレージ アカウントに削除ロックを割り当てると、データの可用性が保護され、業務が中断されるリスクを最小限に抑えることができます。</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
@@ -1809,7 +1774,7 @@
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>コンテナーの論理的な削除は、削除されたデータを指定された期間システムに保持することで、データが誤って削除されないように保護します。</t>
+          <t>コンテナーの論理的な削除は、削除されたデータを指定された期間システム内に保持することで、データが誤って削除されるのを防ぎます。</t>
         </is>
       </c>
       <c r="E22" s="21" t="inlineStr">
@@ -1859,7 +1824,7 @@
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>BLOB の論理的な削除は、削除されたデータを指定された期間システムに保持することで、個々の BLOB とそのバージョン、スナップショット、およびメタデータを偶発的な削除または上書きから保護します。</t>
+          <t>BLOB の論理的な削除は、削除されたデータを指定された期間システム内に保持することで、個々の BLOB とそのバージョン、スナップショット、メタデータを偶発的な削除や上書きから保護します。</t>
         </is>
       </c>
       <c r="E23" s="21" t="inlineStr">
@@ -1909,7 +1874,7 @@
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup の拡張論理的な削除は、削除されたバックアップを保持し、ランサムウェアの暗号化または削除の可能性からの回復を可能にすることで、ランサムウェア攻撃に対する重要な保護を提供します。</t>
+          <t>Azure Backup の強化された論理的な削除は、削除されたバックアップを保持することでランサムウェア攻撃に対する重要な保護を提供し、ランサムウェアの暗号化や削除の可能性からの回復を可能にします。</t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
@@ -1954,12 +1919,12 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup のマルチユーザー承認を実装して、バックアップ リソースへの安全で制御されたアクセスを確保する</t>
+          <t>Azure Backup のマルチユーザー承認を実装して、バックアップ リソースへの安全で制御されたアクセスを確保します</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup のマルチユーザー承認を使用すると、バックアップ リソースへのユーザー アクセスをきめ細かく制御できるため、特権を制限し、バックアップ操作の適切な認証と承認を確保できます。</t>
+          <t>Azure Backup のマルチユーザー承認により、バックアップ リソースへのユーザー アクセスをきめ細かく制御できるため、特権を制限し、バックアップ操作の適切な認証と承認を確保できます。</t>
         </is>
       </c>
       <c r="E25" s="21" t="inlineStr">
@@ -2004,12 +1969,12 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>ボールトに不変ストレージを実装して、ランサムウェアから保護し、バックアップへの不正な変更を防ぎます</t>
+          <t>ボールトに不変ストレージを実装して、ランサムウェアから保護し、バックアップへの不正な変更を防止します</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>Azure Immutable Storage は、コンテナーに格納されているバックアップ データを、指定された保有期間の間は変更または削除できないようにすることで、セキュリティの追加レイヤーを提供します。これにより、バックアップデータを侵害または操作しようとするランサムウェア攻撃からバックアップを保護することができます。</t>
+          <t>Azure 不変ストレージは、指定した保持期間内はコンテナーに格納されているバックアップ データを変更または削除できないようにすることで、セキュリティを強化します。これにより、バックアップデータを侵害または操作しようとする可能性のあるランサムウェア攻撃からバックアップを保護できます。</t>
         </is>
       </c>
       <c r="E26" s="21" t="inlineStr">
@@ -2103,12 +2068,12 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Azure アーキテクチャで信頼性のベスト プラクティスを実装する</t>
+          <t>信頼性のベスト プラクティスを Azure アーキテクチャに実装する</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>Azure アーキテクチャが信頼性に重点を置いて設計されていることを確認します。フォールト トレラント メカニズム、冗長性、回復性パターンを実装して、障害の影響を最小限に抑え、アプリケーションとサービスの可用性を最大化することを検討してください。</t>
+          <t>Azure アーキテクチャが信頼性に重点を置いて設計されていることを確認します。フォールト トレラント メカニズム、冗長性、および回復性パターンを実装して、障害の影響を最小限に抑え、アプリケーションとサービスの可用性を最大化することを検討してください。</t>
         </is>
       </c>
       <c r="E28" s="21" t="inlineStr">
@@ -2147,17 +2112,17 @@
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>開発</t>
+          <t>DevOpsの</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>迅速なインフラストラクチャリカバリのためのコードとしてのインフラストラクチャ(IaC)の実装</t>
+          <t>Infrastructure as Code(IaC)を実装して、インフラストラクチャの迅速なリカバリを実現</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>IaC 構成は、特に復旧時間が時間に敏感でない状況で、ディザスター リカバリー計画で役割を果たすことができます。2 番目のリージョンでインフラストラクチャが再作成される場合は、IaC を使用して必要なインフラストラクチャを再現できます。</t>
+          <t>IaC 構成は、特に復旧時間が時間の影響を受けない状況で、災害復旧計画で役割を果たすことができます。2 番目の地域でインフラストラクチャのレクリエーションを行う場合は、IaC を使用して必要なインフラストラクチャを再現できます。</t>
         </is>
       </c>
       <c r="E29" s="21" t="inlineStr">
@@ -2206,7 +2171,7 @@
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>Azure には、地理的に分離されたリージョン ペアが用意されており、リージョン間のレプリケーションとディザスター リカバリーに使用できます。これらのリージョン ペアは、冗長性と、地域または大規模な災害に対する保護を提供します。</t>
+          <t>Azure には、地理的に分離されたリージョン ペアが用意されており、リージョン間のレプリケーションとディザスター リカバリーに使用できます。これらのリージョン ペアは、冗長性を提供し、地域的または大規模な災害に対する保護を提供します。</t>
         </is>
       </c>
       <c r="E30" s="21" t="inlineStr">
@@ -2250,12 +2215,12 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>最小インスタンス数を 2 にしてアプリケーション ゲートウェイをデプロイし、インスタンス プロビジョニングのダウンタイムを回避する</t>
+          <t>インスタンスのプロビジョニングのダウンタイムを回避するために、最小インスタンス数が 2 の Application Gateway をデプロイします</t>
         </is>
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>最小インスタンス数が 2 のアプリケーション ゲートウェイをデプロイすると、通常の状況で少なくとも 2 つのインスタンスを使用できるようになります。インスタンスの 1 つで問題が発生した場合、新しいインスタンスの作成中に他のインスタンスがトラフィックを処理します。このアプローチにより、サービス中断のリスクが大幅に軽減され、ユーザーにシームレスなエクスペリエンスが保証されます。</t>
+          <t>最小インスタンス数が 2 の Application Gateway をデプロイすると、通常の状況で少なくとも 2 つのインスタンスを使用できるようになります。インスタンスの 1 つで問題が発生した場合、新しいインスタンスが作成されている間、他のインスタンスがトラフィックを処理します。このアプローチにより、サービス中断のリスクが大幅に軽減され、ユーザーにシームレスなエクスペリエンスが確保されます。</t>
         </is>
       </c>
       <c r="E31" s="21" t="inlineStr">
@@ -2299,12 +2264,12 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>ゾーン冗長性をサポートするために Azure アプリケーション ゲートウェイ v2 をデプロイする</t>
+          <t>ゾーン冗長サポートのための Azure Application Gateway v2 のデプロイ</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>v2 SKU には、アプリケーション インフラストラクチャの可用性と回復性を強化するいくつかの利点と重要な新機能が用意されています。v2 SKU でサポートされている注目すべき機能の 1 つは、アプリケーション ゲートウェイのデプロイを複数の可用性ゾーンにまたがることができるゾーン冗長性です。</t>
+          <t>v2 SKU には、アプリケーション インフラストラクチャの可用性と回復性を強化するいくつかの利点と重要な新機能が用意されています。v2 SKU でサポートされている注目すべき機能の 1 つは、Application Gateway のデプロイを複数の可用性ゾーンにまたがって行うことができるゾーン冗長性です。</t>
         </is>
       </c>
       <c r="E32" s="21" t="inlineStr">
@@ -2344,17 +2309,17 @@
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>紺碧の正面玄関</t>
+          <t>Azure のフロント ドア</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>冗長なトラフィック管理ソリューションを Azure フロント ドアと組み合わせて検討する</t>
+          <t>Azure Front Door と組み合わせた冗長なトラフィック管理ソリューションを検討する</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door には自動フェールオーバー機能が用意されており、プライマリ リージョンが使用できなくなった場合の継続性を確保します。ただし、フェールオーバー プロセス中に、クライアントがアプリケーションに到達できない短い期間 (通常は 20 秒から 60 秒) が発生する場合があります。Azure Front Door サービス レベル アグリーメント (SLA) を確認して、Front Door のみに依存することが高可用性のビジネス要件を満たしているかどうかを判断することが重要です。</t>
+          <t>Azure Front Door には自動フェールオーバー機能があり、プライマリ リージョンが使用できなくなった場合の継続性を確保します。ただし、フェイルオーバー・プロセス中に、クライアントがアプリケーションにアクセスできない短い期間(通常は20〜60秒)が発生する場合があります。Azure Front Door サービス レベル アグリーメント (SLA) を確認して、Front Door のみに依存することが高可用性のビジネス要件を満たしているかどうかを判断することが重要です。</t>
         </is>
       </c>
       <c r="E33" s="21" t="inlineStr">
@@ -2394,17 +2359,17 @@
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>DNSの</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>DNS トラフィック用のトラフィック マネージャーを使用した自動フェールオーバーを計画する</t>
+          <t>Traffic Manager for DNS Traffic を使用した自動フェールオーバーの計画</t>
         </is>
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>Traffic Manager を実装することで、アプリケーション エンドポイントの正常性を継続的に監視し、必要に応じてトラフィックを代替エンドポイントに自動的にリダイレクトするように構成できます。この自動化により、ダウンタイムが最小限に抑えられ、ディザスター リカバリー シナリオ中にユーザーによりシームレスなエクスペリエンスが提供されます。</t>
+          <t>Traffic Manager を実装すると、アプリケーション エンドポイントの正常性を継続的に監視し、必要に応じてトラフィックを別のエンドポイントに自動的にリダイレクトするように構成できます。この自動化により、ダウンタイムが最小限に抑えられ、ディザスター リカバリー シナリオ中のユーザーによりシームレスなエクスペリエンスが提供されます。</t>
         </is>
       </c>
       <c r="E34" s="21" t="inlineStr">
@@ -2444,17 +2409,17 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>DNSの</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Azure DNS プライベート リゾルバーを使用した DNS フェールオーバーの実装</t>
+          <t>Azure DNS Private Resolvers を使用した DNS フェールオーバーの実装</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>オンプレミスの DNS サービスの単一障害点を排除し、ビジネス継続性とディザスター リカバリーのシナリオ中に信頼性の高い DNS 解決を確保するには、複数のリージョンで Azure DNS プライベート リゾルバーを使用することをお勧めします。異なるリージョンに 2 つ以上の Azure DNS プライベート リゾルバーをデプロイすることで、DNS フェールオーバーを有効にし、DNS インフラストラクチャの回復性を実現できます。</t>
+          <t>オンプレミスの DNS サービスで単一障害点を排除し、ビジネス継続性とディザスター リカバリーのシナリオで信頼性の高い DNS 解決を確保するには、複数のリージョンで Azure DNS Private Resolvers を利用することをお勧めします。2 つ以上の Azure DNS プライベート リゾルバーを異なるリージョンにデプロイすることで、DNS フェールオーバーを有効にし、DNS インフラストラクチャの回復性を実現できます。</t>
         </is>
       </c>
       <c r="E35" s="21" t="inlineStr">
@@ -2499,12 +2464,12 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>オンプレミスのデータゲートウェイクラスターを使用して、ビジネスクリティカルなデータの高可用性を確保する</t>
+          <t>オンプレミス データ ゲートウェイ クラスターを使用して、ビジネスクリティカルなデータの高可用性を確保する</t>
         </is>
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>オンプレミス データ ゲートウェイ クラスターを使用して、単一障害点を回避し、ゲートウェイ間でトラフィックを負荷分散します。</t>
+          <t>オンプレミス データ ゲートウェイ クラスターを使用して、単一障害点を回避し、ゲートウェイ間でトラフィックの負荷を分散します。</t>
         </is>
       </c>
       <c r="E36" s="21" t="inlineStr">
@@ -2544,17 +2509,17 @@
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>エクスプレスルート</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>高可用性のために ExpressRoute を利用する際に、パートナー ネットワークと顧客ネットワークの両方で冗長性を確保</t>
+          <t>ExpressRoute を使用して高可用性を実現する場合は、パートナー ネットワークと顧客ネットワークの両方で冗長性を確保します</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute を使用する場合は、パートナー ネットワークと顧客ネットワークの両方に冗長性を組み込んで高可用性を実現するように設計することが重要です。これには、複数の ExpressRoute 回線、ネットワークから Microsoft への冗長接続、オンプレミスのネットワーク機器に冗長接続があることの確認などが含まれます。</t>
+          <t>ExpressRoute を使用する場合は、パートナー ネットワークと顧客ネットワークの両方に冗長性を組み込んで、高可用性を実現するように設計することが重要です。これには、複数の ExpressRoute 回線、ネットワークから Microsoft への冗長接続、オンプレミスのネットワーク機器に冗長接続があることを確認することが含まれます。</t>
         </is>
       </c>
       <c r="E37" s="21" t="inlineStr">
@@ -2594,17 +2559,17 @@
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>エクスプレスルート</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>複数の ExpressRoute 回線を使用する場合は、ルーティングでプライマリとバックアップが許可されていることを確認します。</t>
+          <t>複数の ExpressRoute 回線を使用する場合は、ルーティングでプライマリとバックアップが許可されていることを確認します</t>
         </is>
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>プライマリ回線は通常のトラフィックを処理する必要がありますが、プライマリ回線に障害が発生した場合にバックアップ回線が引き継ぐ準備ができている必要があります。BGP 属性を利用してルーティングに影響を与え、プライマリ回線とバックアップ回線を効果的に指定します。</t>
+          <t>プライマリ回線は通常のトラフィックを処理し、バックアップ回線はプライマリ回線に障害が発生した場合に引き継ぐ準備ができています。BGP属性を利用してルーティングに影響を与え、プライマリ回線とバックアップ回線を効果的に指定します。</t>
         </is>
       </c>
       <c r="E38" s="21" t="inlineStr">
@@ -2644,17 +2609,17 @@
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>エクスプレスルート</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>サイト間 VPN を ExpressRoute プライベート ピアリングのバックアップとしてデプロイすることを検討する</t>
+          <t>ExpressRoute プライベート ピアリングのバックアップとしてサイト間 VPN をデプロイすることを検討してください</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t>S2S VPN 接続は、ExpressRoute 回線に障害が発生した場合に、コスト効率と回復性に優れたバックアップ ソリューションを提供できます。フェールオーバーとして S2S VPN を使用することで、ExpressRoute のみに依存することなく、Azure リソースへの接続を維持できます。</t>
+          <t>S2S VPN 接続は、ExpressRoute 回線に障害が発生した場合に、コスト効率が高く、回復力のあるバックアップ ソリューションを提供できます。S2S VPN をフェールオーバーとして使用することで、ExpressRoute だけに頼らずに Azure リソースへの接続を維持できます。</t>
         </is>
       </c>
       <c r="E39" s="21" t="inlineStr">
@@ -2699,12 +2664,12 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>本番アプリケーションへのトラフィックを処理するロードバランサーの標準SKUを活用する</t>
+          <t>運用アプリケーションへのトラフィックを処理するロード バランサーの Standard SKU を活用する</t>
         </is>
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>Standard Load Balancer SKU は、Basic Load Balancer SKU と比較して、99.99% の SLA とより高いレベルのサービス可用性を提供します。</t>
+          <t>Standard Load Balancer SKU は、Basic Load Balancer SKU と比較して 99.99% の SLA とより高いレベルのサービス可用性を提供します。</t>
         </is>
       </c>
       <c r="E40" s="21" t="inlineStr">
@@ -2754,7 +2719,7 @@
       </c>
       <c r="D41" s="21" t="inlineStr">
         <is>
-          <t>負荷分散装置をゾーン冗長フロントエンドで構成することで、1 つの IP アドレスを持つ任意のゾーンのゾーン リソースを提供できます。リージョン内で少なくとも 1 つのゾーンが正常な状態を維持している限り、フロントエンドに関連付けられている IP アドレスは、1 つ以上のゾーン障害後も存続できます。異なるゾーンの仮想マシンなど、複数のゾーン リソースをロード バランサーのバックエンド プールに配置することをお勧めします。</t>
+          <t>ロードバランサーをゾーン冗長フロントエンドで構成することで、1 つの IP アドレスを持つ任意のゾーンのゾーンリソースを提供できます。リージョン内で少なくとも 1 つのゾーンが正常なままである限り、フロントエンドに関連付けられた IP アドレスは 1 つ以上のゾーン障害に耐えることができます。ロード バランサーのバックエンド プールに、異なるゾーンの仮想マシンなど、複数のゾーン リソースを配置することをお勧めします。</t>
         </is>
       </c>
       <c r="E41" s="21" t="inlineStr">
@@ -2799,12 +2764,12 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>ロード バランサー正常性プローブを定義するときに、適切なプロトコル、適切な間隔とタイムアウト、代表的なパス、プローブ応答を選択する</t>
+          <t>Load Balancer Health Probesを定義する際には、適切なプロトコル、適切な間隔とタイムアウト、代表的なパス、プローブ応答を選択します</t>
         </is>
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer の正常性プローブを設計するときは、ベスト プラクティスに従って、バックエンド インスタンスの信頼性の高い正確な監視を確保することが重要です。</t>
+          <t>Azure Load Balancer の正常性プローブを設計するときは、バックエンド インスタンスの信頼性と精度を確保するためのベスト プラクティスに従うことが重要です。</t>
         </is>
       </c>
       <c r="E42" s="21" t="inlineStr">
@@ -2849,12 +2814,12 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>高可用性のためにベンダーがサポートする構成にネットワーク仮想アプライアンス (NVA) をデプロイする</t>
+          <t>ネットワーク仮想アプライアンス (NVA) を、高可用性のためのベンダーがサポートする構成にデプロイします</t>
         </is>
       </c>
       <c r="D43" s="21" t="inlineStr">
         <is>
-          <t>Azure に NVA をデプロイするための最適なオプションを選択するときは、ベンダーの推奨事項を検討し、特定の設計が NVA ベンダーによって検証および検証されていることを検証することが重要です。ベンダーは、Azure でのシームレスな統合に必要な NVA 構成も提供する必要があります。</t>
+          <t>Azure に NVA をデプロイするための最適なオプションを選択するときは、ベンダーの推奨事項を考慮し、特定の設計が NVA ベンダーによって審査および検証されていることを検証することが重要です。また、ベンダーは、Azure でのシームレスな統合に必要な NVA 構成も提供する必要があります。</t>
         </is>
       </c>
       <c r="E43" s="21" t="inlineStr">
@@ -2899,12 +2864,12 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Azure VPN ゲートウェイをアクティブ/アクティブ モードでデプロイして、VPN 接続の高可用性と冗長性を確保します。</t>
+          <t>Azure VPN Gateway をアクティブ/アクティブ モードでデプロイして、VPN 接続の高可用性と冗長性を確保します。</t>
         </is>
       </c>
       <c r="D44" s="21" t="inlineStr">
         <is>
-          <t>VPN Gateway をアクティブ/アクティブ モードで展開することで、VPN トラフィックを複数のゲートウェイに分散し、信頼性を向上させ、障害やメンテナンスが発生した場合でも継続的な接続を確保できます。</t>
+          <t>VPN ゲートウェイをアクティブ/アクティブ モードでデプロイすると、VPN トラフィックを複数のゲートウェイに分散できるため、信頼性が向上し、障害やメンテナンスが発生した場合に継続的な接続を確保できます。</t>
         </is>
       </c>
       <c r="E44" s="21" t="inlineStr">
@@ -2949,12 +2914,12 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>VPN ゲートウェイをデプロイするときにゾーン冗長 SKU を使用して、回復性を強化し、ゾーン レベルの障害から保護する</t>
+          <t>VPN Gateway をデプロイするときにゾーン冗長 SKU を使用して、回復性を強化し、ゾーン レベルの障害から保護します</t>
         </is>
       </c>
       <c r="D45" s="21" t="inlineStr">
         <is>
-          <t>ゾーン冗長 SKU により、VPN ゲートウェイがリージョン内で物理的および論理的に分離され、回復性とスケーラビリティが提供されます。このデプロイ構成により、Azure へのオンプレミス ネットワーク接続がゾーンレベルの障害から保護されます。</t>
+          <t>ゾーン冗長 SKU を使用すると、VPN ゲートウェイがリージョン内で物理的および論理的に分離され、回復性とスケーラビリティが提供されます。このデプロイ構成は、Azure へのオンプレミス ネットワーク接続をゾーン レベルの障害から保護します。</t>
         </is>
       </c>
       <c r="E45" s="21" t="inlineStr">
@@ -6972,20 +6937,118 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
-    <cfRule type="expression" priority="57" dxfId="1">
+  <conditionalFormatting sqref="A8:E57">
+    <cfRule type="expression" priority="7" dxfId="0">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
-    <cfRule type="expression" priority="58" dxfId="0">
+    <cfRule type="expression" priority="8" dxfId="1">
       <formula>($A8&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F297">
-    <cfRule type="expression" priority="31" dxfId="1">
+  <conditionalFormatting sqref="A58:E58 G58:H58">
+    <cfRule type="expression" priority="26" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:E86">
+    <cfRule type="expression" priority="9" dxfId="0">
+      <formula>($A59&lt;&gt;$A60)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" dxfId="1">
+      <formula>($A59&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:G297">
+    <cfRule type="expression" priority="31" dxfId="0">
       <formula>($A87&lt;&gt;$A88)</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" dxfId="4">
+    <cfRule type="expression" priority="37" dxfId="8">
       <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D24">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F86">
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="8">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" priority="28" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" dxfId="8">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:P57 G59:P86">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:J58 L58:P58">
+    <cfRule type="expression" priority="251" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="250" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:I308 J87:P297">
+    <cfRule type="expression" priority="57" dxfId="0">
+      <formula>($A87&lt;&gt;$A88)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="58" dxfId="1">
+      <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:P6">
@@ -6995,121 +7058,6 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I58:J58 L58:P58">
-    <cfRule type="expression" priority="250" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="251" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
-    <cfRule type="expression" priority="9" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E43">
-    <cfRule type="expression" priority="7" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F86">
-    <cfRule type="expression" priority="5" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" dxfId="4">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:E58 G58:H58">
-    <cfRule type="expression" priority="26" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" priority="28" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29" dxfId="4">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K57 K59:K86">
-    <cfRule type="expression" priority="1" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="2" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" priority="3" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -7219,7 +7167,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>このチェックはまだ確認されていません</t>
+          <t>このチェックはまだ見ていません</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -7246,7 +7194,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>このチェックに関連付けられているアクションアイテムがあります</t>
+          <t>このチェックにはアクションアイテムが関連付けられています</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -7273,7 +7221,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>このチェックは検証済みであり、それ以上のアクションアイテムは関連付けられていません</t>
+          <t>このチェックは検証済みであり、これ以上のアクション アイテムは関連付けられていません</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -7295,7 +7243,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>推奨事項は理解されていますが、現在の要件では必要ありません</t>
+          <t>推奨事項は理解されているが、現在の要件では必要ではない</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -7312,7 +7260,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>現在のデザインには適用できません</t>
+          <t>現在のデザインには適用されません</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
